--- a/Case 2/Input/Converting.xlsx
+++ b/Case 2/Input/Converting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam Sohyun\PycharmProjects\UI_Simulation\Case 2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam Sohyun\PycharmProjects\EPL\Case 2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070089B5-3158-43DA-8702-EB2FC443E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2892DE-209C-451E-AEDA-DCC30128AD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1140" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,16 +611,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -660,7 +660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -676,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -708,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -716,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -732,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -748,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -772,7 +772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -780,7 +780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -788,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -796,7 +796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -804,7 +804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -812,7 +812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -820,7 +820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -828,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -836,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -844,7 +844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -852,740 +852,740 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>62</v>
       </c>
       <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>66</v>
       </c>
       <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>52</v>
       </c>
       <c r="B58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>53</v>
       </c>
       <c r="B76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>63</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>63</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>63</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>54</v>
       </c>
       <c r="B94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>64</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>64</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>64</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>55</v>
-      </c>
-      <c r="B100" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>55</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>55</v>
       </c>
       <c r="B112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
         <v>65</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B118" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>65</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B119" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
         <v>65</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B120" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>56</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B121" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>65</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
